--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Eyad Mohammed aziz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بثينه احمد محمد جندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1230029</x:t>
@@ -509,7 +518,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +818,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1282,7 +1291,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4162944444</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1310,9 +1319,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45908.4162944444</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1335,16 +1346,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45909.5105098727</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1376,7 +1385,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45909.5105098727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1408,7 +1417,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5375304745</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1440,7 +1449,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45915.5375304745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1472,7 +1481,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1504,7 +1513,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6685396644</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1536,7 +1545,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4185524653</x:v>
+        <x:v>45907.6685396644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1568,7 +1577,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.7159958681</x:v>
+        <x:v>45908.4185524653</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1600,7 +1609,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4178663542</x:v>
+        <x:v>45907.7159958681</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1632,7 +1641,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4169482639</x:v>
+        <x:v>45908.4178663542</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1664,7 +1673,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5376102662</x:v>
+        <x:v>45908.4169482639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1696,7 +1705,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45915.5376102662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1728,7 +1737,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1760,7 +1769,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5375552431</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1792,7 +1801,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45915.5375552431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1824,7 +1833,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1856,7 +1865,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1888,7 +1897,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1920,7 +1929,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1952,7 +1961,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1984,7 +1993,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2016,7 +2025,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2048,7 +2057,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5375778588</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2080,7 +2089,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45915.5375778588</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2112,7 +2121,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2202,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -250,15 +250,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Hossam Eldin Mokhtar Husseini</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240089</x:t>
@@ -518,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1705,7 +1696,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.5376102662</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1737,7 +1728,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1769,7 +1760,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45915.5375552431</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1801,7 +1792,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5375552431</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1833,7 +1824,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1865,7 +1856,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1897,7 +1888,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1929,7 +1920,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1961,7 +1952,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1993,7 +1984,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2025,7 +2016,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2057,7 +2048,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.5375778588</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2089,7 +2080,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.5375778588</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2121,7 +2112,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2153,7 +2144,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,7 +2176,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2202,38 +2193,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -367,6 +367,15 @@
   </x:si>
   <x:si>
     <x:t>Hoda Khaled Mohammed Amjali Elmacaron Elindan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هيثم عبدالله امير الجيش محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Haytham Abdullah Amir El Gesh Mohamad</x:t>
   </x:si>
   <x:si>
     <x:t>1240189</x:t>
@@ -509,7 +518,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +818,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2112,7 +2121,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,7 +2153,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2176,7 +2185,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2202,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -261,6 +261,15 @@
     <x:t>Abdullah Adel Ahmed Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>2240008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على الدين خالد على شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali eldin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240336</x:t>
   </x:si>
   <x:si>
@@ -324,6 +333,15 @@
     <x:t>Mohamed Yasser Mohamed Galal</x:t>
   </x:si>
   <x:si>
+    <x:t>1240366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حماده حليم صالح الحوت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240268</x:t>
   </x:si>
   <x:si>
@@ -367,6 +385,15 @@
   </x:si>
   <x:si>
     <x:t>Hoda Khaled Mohammed Amjali Elmacaron Elindan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمد ابراهيم محمود بليطه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mohamed Ibrahim Mahmoud Balita</x:t>
   </x:si>
   <x:si>
     <x:t>1240387</x:t>
@@ -518,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1737,7 +1764,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45927.419353206</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1769,7 +1796,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5375552431</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1801,7 +1828,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45915.5375552431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1833,7 +1860,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1865,7 +1892,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1897,7 +1924,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1929,7 +1956,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1961,7 +1988,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1993,7 +2020,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45927.4851838773</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2025,7 +2052,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2057,7 +2084,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5375778588</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2089,7 +2116,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2121,7 +2148,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45915.5375778588</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2153,7 +2180,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,7 +2212,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45927.4636287384</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2217,7 +2244,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2234,6 +2261,102 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45908.4153125</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45915.5374993866</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -412,6 +412,15 @@
   </x:si>
   <x:si>
     <x:t>Yousef Ahmed Saad Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1240174</x:t>
@@ -545,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -845,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2308,7 +2317,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2357,6 +2366,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -313,6 +313,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Mohamed Ibrahim Omran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايهاب صابر عبد العزيز عليوه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ehab saber abdelaziz aliwa</x:t>
   </x:si>
   <x:si>
     <x:t>1240137</x:t>
@@ -554,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -854,7 +863,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1965,7 +1974,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45929.8970814468</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1997,7 +2006,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2029,7 +2038,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.4851838773</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2061,7 +2070,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45927.4851838773</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2093,7 +2102,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2125,7 +2134,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2157,7 +2166,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.5375778588</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2189,7 +2198,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45915.5375778588</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2221,7 +2230,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.4636287384</x:v>
+        <x:v>45916.5847720255</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2253,7 +2262,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45927.4636287384</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2285,7 +2294,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2317,7 +2326,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45929.3192996875</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2349,7 +2358,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2381,7 +2390,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2398,6 +2407,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -385,15 +385,6 @@
   </x:si>
   <x:si>
     <x:t>Mina Ehab Samir Alfi Atallah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2240003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هدى خالد محمد امجلى المكرون الهندى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoda Khaled Mohammed Amjali Elmacaron Elindan</x:t>
   </x:si>
   <x:si>
     <x:t>4250198</x:t>
@@ -563,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2230,7 +2221,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.5847720255</x:v>
+        <x:v>45927.4636287384</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2262,7 +2253,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.4636287384</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2294,7 +2285,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2326,7 +2317,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2358,7 +2349,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45929.3192996875</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2390,7 +2381,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2407,38 +2398,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Hassan Ashraf Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن محى حسن عبدالمجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240410</x:t>
@@ -554,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -854,7 +863,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1387,9 +1396,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4154415509</x:v>
+        <x:v>45933.5892980324</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1412,16 +1423,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45909.5105098727</x:v>
+        <x:v>45908.4154415509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1453,7 +1462,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4160109606</x:v>
+        <x:v>45909.5105098727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1485,7 +1494,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.5375304745</x:v>
+        <x:v>45908.4160109606</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1517,7 +1526,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45915.5375304745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1549,7 +1558,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6834598032</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6685396644</x:v>
+        <x:v>45907.6834598032</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4185524653</x:v>
+        <x:v>45907.6685396644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1645,7 +1654,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.7159958681</x:v>
+        <x:v>45908.4185524653</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1677,7 +1686,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4178663542</x:v>
+        <x:v>45907.7159958681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1709,7 +1718,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4169482639</x:v>
+        <x:v>45908.4178663542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1741,7 +1750,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4157890046</x:v>
+        <x:v>45908.4169482639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1773,7 +1782,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.419353206</x:v>
+        <x:v>45908.4157890046</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1805,7 +1814,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4151978009</x:v>
+        <x:v>45927.419353206</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1837,7 +1846,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5375552431</x:v>
+        <x:v>45908.4151978009</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1869,7 +1878,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4152319444</x:v>
+        <x:v>45915.5375552431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1901,7 +1910,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4982068634</x:v>
+        <x:v>45908.4152319444</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1933,7 +1942,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45909.4982068634</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1965,7 +1974,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45929.8970814468</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1997,7 +2006,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45929.8970814468</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2029,7 +2038,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2061,7 +2070,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45927.4851838773</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2093,7 +2102,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45927.4851838773</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2125,7 +2134,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2157,7 +2166,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2189,7 +2198,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45915.5375778588</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2221,7 +2230,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45927.4636287384</x:v>
+        <x:v>45915.5375778588</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2253,7 +2262,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45927.4636287384</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2285,7 +2294,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2317,7 +2326,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45929.3192996875</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2349,7 +2358,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2381,7 +2390,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.5374993866</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2398,6 +2407,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -315,6 +315,15 @@
     <x:t>Kareem Hossam Helal Mohamed Helal</x:t>
   </x:si>
   <x:si>
+    <x:t>1240352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مؤمن محمد محرز جمال عبد الغفور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moomen Mohamed Mehrez Gamal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240258</x:t>
   </x:si>
   <x:si>
@@ -358,6 +367,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد محرز جمال عبد الغفور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan mohamed mehrez gamal</x:t>
   </x:si>
   <x:si>
     <x:t>1240268</x:t>
@@ -563,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -863,7 +881,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1974,7 +1992,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45934.4787549421</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2006,7 +2024,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45929.8970814468</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2038,7 +2056,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4155906597</x:v>
+        <x:v>45929.8970814468</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2070,7 +2088,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45908.4155906597</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2102,7 +2120,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4851838773</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2134,7 +2152,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4154908912</x:v>
+        <x:v>45927.4851838773</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2166,7 +2184,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6671960648</x:v>
+        <x:v>45934.4787549421</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2198,7 +2216,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45908.4154908912</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2230,7 +2248,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.5375778588</x:v>
+        <x:v>45907.6671960648</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2262,7 +2280,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.4636287384</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2294,7 +2312,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45915.5375778588</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2326,7 +2344,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4153125</x:v>
+        <x:v>45927.4636287384</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2358,7 +2376,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45929.3192996875</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2390,7 +2408,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5374993866</x:v>
+        <x:v>45908.4153125</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2422,7 +2440,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2439,6 +2457,70 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45915.5374993866</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS002_Tutorial-35843.xlsx
+++ b/downloaded_files/PHYS002_Tutorial-35843.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -91,6 +91,9 @@
   </x:si>
   <x:si>
     <x:t>اسراء عبدالحميد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Abdelhameed Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240026</x:t>
@@ -1160,7 +1163,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
         <x:v>45909.4866021181</x:v>
       </x:c>
@@ -1185,13 +1190,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45908.4194866898</x:v>
@@ -1217,13 +1222,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45909.4924033218</x:v>
@@ -1249,13 +1254,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45908.4159268171</x:v>
@@ -1281,13 +1286,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45908.4180563657</x:v>
@@ -1313,13 +1318,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45909.5254693287</x:v>
@@ -1345,13 +1350,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45919.9748653935</x:v>
@@ -1377,13 +1382,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45908.4162944444</x:v>
@@ -1409,13 +1414,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45933.5892980324</x:v>
@@ -1441,10 +1446,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
@@ -1471,13 +1476,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45909.5105098727</x:v>
@@ -1503,13 +1508,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45908.4160109606</x:v>
@@ -1535,13 +1540,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45915.5375304745</x:v>
@@ -1567,13 +1572,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.6845854514</x:v>
@@ -1599,13 +1604,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6834598032</x:v>
@@ -1631,13 +1636,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6685396644</x:v>
@@ -1663,13 +1668,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45908.4185524653</x:v>
@@ -1695,13 +1700,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.7159958681</x:v>
@@ -1727,13 +1732,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45908.4178663542</x:v>
@@ -1759,13 +1764,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45908.4169482639</x:v>
@@ -1791,13 +1796,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45908.4157890046</x:v>
@@ -1823,13 +1828,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45927.419353206</x:v>
@@ -1855,13 +1860,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45908.4151978009</x:v>
@@ -1887,13 +1892,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45915.5375552431</x:v>
@@ -1919,13 +1924,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45908.4152319444</x:v>
@@ -1951,13 +1956,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45909.4982068634</x:v>
@@ -1983,13 +1988,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45934.4787549421</x:v>
@@ -2015,13 +2020,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45908.4150680903</x:v>
@@ -2047,13 +2052,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45929.8970814468</x:v>
@@ -2079,13 +2084,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45908.4155906597</x:v>
@@ -2111,13 +2116,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6655889236</x:v>
@@ -2143,13 +2148,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45927.4851838773</x:v>
@@ -2175,13 +2180,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45934.4787549421</x:v>
@@ -2207,13 +2212,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45908.4154908912</x:v>
@@ -2239,13 +2244,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.6671960648</x:v>
@@ -2271,13 +2276,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45908.4150209491</x:v>
@@ -2303,13 +2308,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45915.5375778588</x:v>
@@ -2335,13 +2340,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45927.4636287384</x:v>
@@ -2367,13 +2372,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45921.9125798611</x:v>
@@ -2399,13 +2404,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45908.4153125</x:v>
@@ -2431,13 +2436,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45929.3192996875</x:v>
@@ -2463,13 +2468,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45915.5374993866</x:v>
@@ -2495,13 +2500,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C50" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45908.4154790856</x:v>
